--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246444BD-2C8B-4F54-96FB-E680E61D7C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC360F-9431-481C-B9AC-429BFC766B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -502,22 +502,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" customWidth="1"/>
+    <col min="12" max="12" width="0.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -585,11 +588,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <f>SUM(M2,B2:L2)</f>
+        <f t="shared" ref="N2:N21" si="0">SUM(M2,B2:L2)</f>
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -613,7 +616,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f>SUM(M3,B3:L3)</f>
+        <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
       <c r="O3" t="s">
@@ -641,11 +644,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <f>SUM(M4,B4:L4)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -669,11 +672,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <f>SUM(M5,B5:L5)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -697,11 +700,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <f>SUM(M6,B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -725,11 +728,11 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <f>SUM(M7,B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,11 +754,11 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <f>SUM(M8,B8:L8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -777,11 +780,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <f>SUM(M9,B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -805,11 +808,11 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <f>SUM(M10,B10:L10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -831,7 +834,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <f>SUM(M11,B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O11" t="s">
@@ -857,11 +860,11 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <f>SUM(M12,B12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -883,11 +886,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <f>SUM(M13,B13:L13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -909,11 +912,11 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <f>SUM(M14,B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -935,11 +938,11 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <f>SUM(M15,B15:L15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -961,11 +964,11 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <f>SUM(M16,B16:L16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -987,11 +990,11 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <f>SUM(M17,B17:L17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1013,11 +1016,11 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <f>SUM(M18,B18:L18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1039,11 +1042,11 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <f>SUM(M19,B19:L19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1065,11 +1068,11 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <f>SUM(M20,B20:L20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1091,7 +1094,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <f>SUM(M21,B21:L21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O21" t="s">

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC360F-9431-481C-B9AC-429BFC766B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA906CFA-CAAB-4332-A6B3-72BCBD92761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>İspanya</t>
   </si>
@@ -168,6 +168,69 @@
   </si>
   <si>
     <t>T. Kaya</t>
+  </si>
+  <si>
+    <t>Tam Ad</t>
+  </si>
+  <si>
+    <t>Ahmet Akdeniz</t>
+  </si>
+  <si>
+    <t>Semih Aydın</t>
+  </si>
+  <si>
+    <t>Deniz Küçükkaya</t>
+  </si>
+  <si>
+    <t>Kerem Çavdur</t>
+  </si>
+  <si>
+    <t>Alperen Yurt</t>
+  </si>
+  <si>
+    <t>Furkan Yılmaz</t>
+  </si>
+  <si>
+    <t>Furkan Güre</t>
+  </si>
+  <si>
+    <t>Ali Işık</t>
+  </si>
+  <si>
+    <t>Pusat Cantürk</t>
+  </si>
+  <si>
+    <t>Melih Eskikent</t>
+  </si>
+  <si>
+    <t>Toprak Emeksiz</t>
+  </si>
+  <si>
+    <t>Eymen Ertürk</t>
+  </si>
+  <si>
+    <t>Eren Evirgen</t>
+  </si>
+  <si>
+    <t>Yusuf Aykırı</t>
+  </si>
+  <si>
+    <t>Orhan Develi</t>
+  </si>
+  <si>
+    <t>Tolga Köse</t>
+  </si>
+  <si>
+    <t>Özgür Divarcı</t>
+  </si>
+  <si>
+    <t>Metin Hışım</t>
+  </si>
+  <si>
+    <t>Kerem Şeker</t>
+  </si>
+  <si>
+    <t>Talha Kaya</t>
   </si>
 </sst>
 </file>
@@ -500,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +588,7 @@
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +631,11 @@
       <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -594,8 +660,11 @@
       <c r="O2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -620,10 +689,13 @@
         <v>30.5</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -648,10 +720,13 @@
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -676,10 +751,13 @@
         <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -704,10 +782,13 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -732,10 +813,13 @@
         <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -760,8 +844,11 @@
       <c r="O8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -784,10 +871,13 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -812,10 +902,13 @@
         <v>10</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -838,10 +931,13 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -864,10 +960,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="P12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -890,10 +989,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -916,10 +1018,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="P14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -942,10 +1047,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -968,10 +1076,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -994,10 +1105,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1020,10 +1134,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1046,10 +1163,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1072,10 +1192,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1098,10 +1221,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="P21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
   </sheetData>

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA906CFA-CAAB-4332-A6B3-72BCBD92761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76CF56-9966-4B14-851C-FA35893A3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,9 @@
         <v>26</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -655,7 +657,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N21" si="0">SUM(M2,B2:L2)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -674,7 +676,9 @@
       <c r="C3" s="3">
         <v>12.5</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -686,7 +690,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>30.5</v>
+        <v>36.5</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -736,7 +740,9 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -748,7 +754,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O5" t="s">
         <v>31</v>
@@ -887,7 +893,9 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -899,7 +907,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
@@ -945,7 +953,9 @@
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>26</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -957,7 +967,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O12" t="s">
         <v>31</v>
@@ -1032,7 +1042,9 @@
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1044,7 +1056,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
@@ -1061,7 +1073,9 @@
         <v>0</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1073,7 +1087,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O16" t="s">
         <v>41</v>
@@ -1148,7 +1162,9 @@
         <v>0</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1160,7 +1176,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
@@ -1177,7 +1193,9 @@
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1189,7 +1207,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
         <v>36</v>
@@ -1206,7 +1224,9 @@
         <v>0</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1218,7 +1238,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O21" t="s">
         <v>32</v>

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76CF56-9966-4B14-851C-FA35893A3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FF03B-0EFE-4185-B290-54FA77BA5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
         <v>48</v>
@@ -1241,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" t="s">
         <v>64</v>

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426FF03B-0EFE-4185-B290-54FA77BA5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC70346-E7EB-408F-B62A-C483E703EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,23 +566,23 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="1.28515625" customWidth="1"/>
-    <col min="12" max="12" width="0.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -656,7 +656,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N21" si="0">SUM(M2,B2:L2)</f>
+        <f>SUM(M2,B2:L2)</f>
         <v>34</v>
       </c>
       <c r="O2" t="s">
@@ -668,17 +668,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -689,25 +685,25 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
+        <f>SUM(M3,B3:L3)</f>
+        <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -720,29 +716,27 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>SUM(M4,B4:L4)</f>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -753,26 +747,24 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f>SUM(M5,B5:L5)</f>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -784,26 +776,24 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(M6,B6:L6)</f>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -815,14 +805,14 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUM(M7,B7:L7)</f>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -844,7 +834,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(M8,B8:L8)</f>
         <v>6</v>
       </c>
       <c r="O8" t="s">
@@ -856,12 +846,14 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -873,28 +865,28 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(M9,B9:L9)</f>
+        <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -906,25 +898,27 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>SUM(M10,B10:L10)</f>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -935,27 +929,25 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(M11,B11:L11)</f>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>26</v>
-      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -966,25 +958,27 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>SUM(M12,B12:L12)</f>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -995,25 +989,27 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(M13,B13:L13)</f>
+        <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>15</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1024,27 +1020,25 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(M14,B14:L14)</f>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1055,26 +1049,28 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(M15,B15:L15)</f>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1086,25 +1082,29 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUM(M16,B16:L16)</f>
+        <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1115,25 +1115,27 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(M17,B17:L17)</f>
+        <v>36.5</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1144,27 +1146,25 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(M18,B18:L18)</f>
+        <v>12</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>10</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1175,26 +1175,26 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(M19,B19:L19)</f>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1206,26 +1206,26 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(M20,B20:L20)</f>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P20" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1237,22 +1237,22 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>SUM(M21,B21:L21)</f>
+        <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
-    <sortCondition descending="1" ref="N1:N21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
+    <sortCondition ref="P1:P21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC70346-E7EB-408F-B62A-C483E703EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1A011-980C-448A-9531-280D056E3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3600" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,9 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -656,8 +658,8 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <f>SUM(M2,B2:L2)</f>
-        <v>34</v>
+        <f t="shared" ref="N2:N21" si="0">SUM(M2,B2:L2)</f>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -685,7 +687,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
-        <f>SUM(M3,B3:L3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O3" t="s">
@@ -716,7 +718,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
-        <f>SUM(M4,B4:L4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O4" t="s">
@@ -737,7 +739,9 @@
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -747,8 +751,8 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <f>SUM(M5,B5:L5)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
@@ -776,7 +780,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <f>SUM(M6,B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" t="s">
@@ -805,7 +809,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <f>SUM(M7,B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" t="s">
@@ -824,7 +828,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -834,8 +840,8 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <f>SUM(M8,B8:L8)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
         <v>34</v>
@@ -865,7 +871,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <f>SUM(M9,B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="O9" t="s">
@@ -888,7 +894,9 @@
       <c r="D10" s="1">
         <v>18</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -898,8 +906,8 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <f>SUM(M10,B10:L10)</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
         <v>32</v>
@@ -929,7 +937,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <f>SUM(M11,B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O11" t="s">
@@ -948,7 +956,9 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -958,8 +968,8 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <f>SUM(M12,B12:L12)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="O12" t="s">
         <v>36</v>
@@ -979,7 +989,9 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -989,8 +1001,8 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <f>SUM(M13,B13:L13)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
@@ -1020,7 +1032,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <f>SUM(M14,B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O14" t="s">
@@ -1039,7 +1051,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1049,8 +1063,8 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
-        <f>SUM(M15,B15:L15)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
@@ -1082,7 +1096,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
-        <f>SUM(M16,B16:L16)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="O16" t="s">
@@ -1105,7 +1119,9 @@
       <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>18</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1115,8 +1131,8 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1">
-        <f>SUM(M17,B17:L17)</f>
-        <v>36.5</v>
+        <f t="shared" si="0"/>
+        <v>54.5</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
@@ -1146,7 +1162,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1">
-        <f>SUM(M18,B18:L18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O18" t="s">
@@ -1175,7 +1191,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
-        <f>SUM(M19,B19:L19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" t="s">
@@ -1196,7 +1212,9 @@
       <c r="D20" s="1">
         <v>26</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>15</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1206,8 +1224,8 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
-        <f>SUM(M20,B20:L20)</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
         <v>31</v>
@@ -1227,7 +1245,9 @@
       <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1237,8 +1257,8 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <f>SUM(M21,B21:L21)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
         <v>41</v>

--- a/puanlar.xlsx
+++ b/puanlar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\F123Lead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1A011-980C-448A-9531-280D056E3792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928EE90-6AF7-405E-98DB-CFDBC9348A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>İspanya</t>
   </si>
@@ -98,9 +98,6 @@
     <t>F. Yılmaz</t>
   </si>
   <si>
-    <t>A. Işık</t>
-  </si>
-  <si>
     <t>P. Cantürk</t>
   </si>
   <si>
@@ -110,21 +107,12 @@
     <t>E. Ertürk</t>
   </si>
   <si>
-    <t>E. Evirgen</t>
-  </si>
-  <si>
     <t>Y. Aykırı</t>
   </si>
   <si>
     <t>O. Develi</t>
   </si>
   <si>
-    <t>T. Köse</t>
-  </si>
-  <si>
-    <t>Ö. Divarcı</t>
-  </si>
-  <si>
     <t>Toplam</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>Furkan Güre</t>
   </si>
   <si>
-    <t>Ali Işık</t>
-  </si>
-  <si>
     <t>Pusat Cantürk</t>
   </si>
   <si>
@@ -209,18 +194,12 @@
     <t>Eymen Ertürk</t>
   </si>
   <si>
-    <t>Eren Evirgen</t>
-  </si>
-  <si>
     <t>Yusuf Aykırı</t>
   </si>
   <si>
     <t>Orhan Develi</t>
   </si>
   <si>
-    <t>Tolga Köse</t>
-  </si>
-  <si>
     <t>Özgür Divarcı</t>
   </si>
   <si>
@@ -231,6 +210,9 @@
   </si>
   <si>
     <t>Talha Kaya</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -565,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -662,18 +644,18 @@
         <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -688,13 +670,13 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -722,10 +704,10 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -755,15 +737,15 @@
         <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -784,15 +766,15 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -813,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -844,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -875,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -910,15 +892,15 @@
         <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -941,10 +923,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -972,15 +954,15 @@
         <v>7</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1005,15 +987,15 @@
         <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1036,15 +1018,15 @@
         <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1067,15 +1049,15 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -1100,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="O16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1135,15 +1117,15 @@
         <v>54.5</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1166,15 +1148,15 @@
         <v>12</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1195,15 +1177,15 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1228,15 +1210,15 @@
         <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1261,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="O21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
